--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_weight_vote.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_weight_vote.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t xml:space="preserve">y</t>
   </si>
@@ -26,7 +26,13 @@
     <t xml:space="preserve">CI_high</t>
   </si>
   <si>
+    <t xml:space="preserve">along</t>
+  </si>
+  <si>
     <t xml:space="preserve">&lt;b&gt;All&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cut_aid_in_programTRUE</t>
   </si>
   <si>
     <t xml:space="preserve">&lt;b&gt;Europe&lt;/b&gt;</t>
@@ -401,159 +407,195 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0553937931714483</v>
+        <v>-0.0513286442643204</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0778365291031607</v>
+        <v>-0.0671790184472558</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.032951057239736</v>
+        <v>-0.0354782700813851</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0568171395511542</v>
+        <v>-0.0478584132505946</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0891148683204101</v>
+        <v>-0.0706141477727704</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0245194107818982</v>
+        <v>-0.0251026787284189</v>
+      </c>
+      <c r="E3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.022834116958244</v>
+        <v>0.0059073444719303</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0577299586936083</v>
+        <v>-0.0503131381821435</v>
       </c>
       <c r="D4" t="n">
-        <v>0.103398192610096</v>
+        <v>0.0621278271260041</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0939184481506937</v>
+        <v>-0.0495346534007151</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.161951501120431</v>
+        <v>-0.0974637307836841</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.0258853951809561</v>
+        <v>-0.00160557601774618</v>
+      </c>
+      <c r="E5" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.17370172563329</v>
+        <v>-0.124368455268675</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.250128016385663</v>
+        <v>-0.179542730281175</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0972754348809171</v>
+        <v>-0.0691941802561751</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.112843680712125</v>
+        <v>-0.072172816617106</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.21030116511403</v>
+        <v>-0.142611302671681</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0153861963102188</v>
+        <v>-0.0017343305625309</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0404812496369166</v>
+        <v>-0.0915766986174901</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.130309288116866</v>
+        <v>-0.154893116051925</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0493467888430328</v>
+        <v>-0.0282602811830557</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>0.0191721690712545</v>
+        <v>-0.00537949765378601</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0603615840597693</v>
+        <v>-0.0604664383018167</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0987059222022782</v>
+        <v>0.0497074429942447</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0583638302707828</v>
+        <v>0.0868622068295776</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0512298000135148</v>
+        <v>0.0084108846117876</v>
       </c>
       <c r="D10" t="n">
-        <v>0.16795746055508</v>
+        <v>0.165313529047368</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.0184264255454356</v>
+        <v>-0.0148317041662747</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0677962933855345</v>
+        <v>-0.0493904940584233</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0309434422946632</v>
+        <v>0.0197270857258738</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.066834616836694</v>
+        <v>-0.0692743648953208</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.105377543224187</v>
+        <v>-0.096662491837547</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0282916904492011</v>
+        <v>-0.0418862379530946</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_weight_vote.xlsx
+++ b/xlsx/country_comparison/program_preferred_by_cut_aid_in_program_weight_vote.xlsx
@@ -416,13 +416,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.0513286442643204</v>
+        <v>-0.0513286442643216</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.0671790184472558</v>
+        <v>-0.0671790184472573</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.0354782700813851</v>
+        <v>-0.0354782700813859</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -433,13 +433,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>-0.0478584132505946</v>
+        <v>-0.0478584132505945</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0706141477727704</v>
+        <v>-0.0706141477727702</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.0251026787284189</v>
+        <v>-0.0251026787284188</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -450,10 +450,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.0059073444719303</v>
+        <v>0.00590734447193048</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0503131381821435</v>
+        <v>-0.0503131381821432</v>
       </c>
       <c r="D4" t="n">
         <v>0.0621278271260041</v>
@@ -467,13 +467,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.0495346534007151</v>
+        <v>-0.0495346534007152</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.0974637307836841</v>
+        <v>-0.0974637307836842</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.00160557601774618</v>
+        <v>-0.00160557601774626</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -487,10 +487,10 @@
         <v>-0.124368455268675</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.179542730281175</v>
+        <v>-0.179542730281176</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.0691941802561751</v>
+        <v>-0.0691941802561752</v>
       </c>
       <c r="E6" t="s">
         <v>6</v>
@@ -501,13 +501,13 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.072172816617106</v>
+        <v>-0.0721728166171057</v>
       </c>
       <c r="C7" t="n">
         <v>-0.142611302671681</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.0017343305625309</v>
+        <v>-0.00173433056253078</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
@@ -518,13 +518,13 @@
         <v>12</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.0915766986174901</v>
+        <v>-0.0915766986174898</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.154893116051925</v>
+        <v>-0.154893116051924</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.0282602811830557</v>
+        <v>-0.0282602811830555</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -535,13 +535,13 @@
         <v>13</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.00537949765378601</v>
+        <v>-0.00537949765378627</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.0604664383018167</v>
+        <v>-0.060466438301817</v>
       </c>
       <c r="D9" t="n">
-        <v>0.0497074429942447</v>
+        <v>0.0497074429942445</v>
       </c>
       <c r="E9" t="s">
         <v>6</v>
@@ -552,10 +552,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="n">
-        <v>0.0868622068295776</v>
+        <v>0.0868622068295778</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0084108846117876</v>
+        <v>0.00841088461178779</v>
       </c>
       <c r="D10" t="n">
         <v>0.165313529047368</v>
@@ -572,10 +572,10 @@
         <v>-0.0148317041662747</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.0493904940584233</v>
+        <v>-0.0493904940584227</v>
       </c>
       <c r="D11" t="n">
-        <v>0.0197270857258738</v>
+        <v>0.0197270857258734</v>
       </c>
       <c r="E11" t="s">
         <v>6</v>
@@ -586,10 +586,10 @@
         <v>16</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.0692743648953208</v>
+        <v>-0.0692743648953206</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.096662491837547</v>
+        <v>-0.0966624918375467</v>
       </c>
       <c r="D12" t="n">
         <v>-0.0418862379530946</v>
